--- a/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\OneDrive - ICF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B12FD3D-4E08-420F-BF53-0B8A52C35624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C8E7C-81B6-48E4-B49F-7324161499B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4037144D-154C-4ECA-A138-CB4373BF1F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4037144D-154C-4ECA-A138-CB4373BF1F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Template Name: SLFRF Broadband Location Template</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>The FCC-provided ID that will align with the entity that files or will file Broadband Data Collection data</t>
-  </si>
-  <si>
-    <t>Enter the site specific fabric identification number (Fabric ID) from the FCC broadband funded locations map that corresponds with the location in the field provided. This is the Broadband Serviceable Fabric Location (Max length - 20 characters)</t>
   </si>
   <si>
     <t>Enter the latitude data for the location to which service is installed.
@@ -216,6 +213,31 @@
   </si>
   <si>
     <t>Version: 2023.5.25</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>[DO NOT ENTER FOR EXISTING ENTRIES]
+Enter the site specific fabric identification number (Fabric ID) from the FCC broadband funded locations map that corresponds with the location in the field provided. This is the Broadband Serviceable Fabric Location (Max length - 20 characters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DO NOT ENTER FOR NEW ENTRIES] This is a Treasury Portal auto-generated unique ID only for used when updating existing locations in bulk upload. The IDs can be found in the “My Broadband Locations” table as well as through the “Download as CSV” feature. </t>
+  </si>
+  <si>
+    <t>Void_Location__c</t>
+  </si>
+  <si>
+    <t>Void Location</t>
+  </si>
+  <si>
+    <t>Not required. If the location is no longer relevant, set this column to 'Void' to remove it from the displayed locations. Locations will default to 'Display'.
+Options: 
+'Void'
+'Display'</t>
   </si>
 </sst>
 </file>
@@ -271,13 +293,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -299,14 +324,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -450,7 +471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,33 +621,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F803400-39A4-425E-BE38-4133E8AD7233}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="32.42578125" style="2"/>
+    <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="32.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:17" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,54 +659,60 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>48</v>
+      <c r="Q4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -693,16 +724,16 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>29</v>
@@ -711,16 +742,22 @@
         <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,90 +765,102 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="339.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\OneDrive - ICF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C8E7C-81B6-48E4-B49F-7324161499B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B12FD3D-4E08-420F-BF53-0B8A52C35624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4037144D-154C-4ECA-A138-CB4373BF1F03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4037144D-154C-4ECA-A138-CB4373BF1F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Template Name: SLFRF Broadband Location Template</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>The FCC-provided ID that will align with the entity that files or will file Broadband Data Collection data</t>
+  </si>
+  <si>
+    <t>Enter the site specific fabric identification number (Fabric ID) from the FCC broadband funded locations map that corresponds with the location in the field provided. This is the Broadband Serviceable Fabric Location (Max length - 20 characters)</t>
   </si>
   <si>
     <t>Enter the latitude data for the location to which service is installed.
@@ -213,31 +216,6 @@
   </si>
   <si>
     <t>Version: 2023.5.25</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>[DO NOT ENTER FOR EXISTING ENTRIES]
-Enter the site specific fabric identification number (Fabric ID) from the FCC broadband funded locations map that corresponds with the location in the field provided. This is the Broadband Serviceable Fabric Location (Max length - 20 characters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DO NOT ENTER FOR NEW ENTRIES] This is a Treasury Portal auto-generated unique ID only for used when updating existing locations in bulk upload. The IDs can be found in the “My Broadband Locations” table as well as through the “Download as CSV” feature. </t>
-  </si>
-  <si>
-    <t>Void_Location__c</t>
-  </si>
-  <si>
-    <t>Void Location</t>
-  </si>
-  <si>
-    <t>Not required. If the location is no longer relevant, set this column to 'Void' to remove it from the displayed locations. Locations will default to 'Display'.
-Options: 
-'Void'
-'Display'</t>
   </si>
 </sst>
 </file>
@@ -293,16 +271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -324,10 +299,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +344,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -471,7 +450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,37 +600,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F803400-39A4-425E-BE38-4133E8AD7233}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="32.44140625" style="2"/>
+    <col min="2" max="16384" width="32.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,60 +634,54 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -724,16 +693,16 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>29</v>
@@ -742,22 +711,16 @@
         <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,102 +728,90 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" ht="339.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/slfrfBroadbandLocationBulkUpload.xlsx
@@ -872,6 +872,297 @@
 </worksheet>
 </file>
 
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100473DE4EA8FF5104F8456752DB619673A" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4fd7ef94a58df89505d05cd8f0789b1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="26f1519c-0a18-4175-bd8e-760b6597752e" xmlns:ns3="def454d3-7361-4a53-bd39-35a8c96a39c0" xmlns:ns4="06a0b0f5-ab3f-4382-8730-459fb424e421" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14f03c0bfa8338aae8ff84ba27968e08" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="26f1519c-0a18-4175-bd8e-760b6597752e"/>
+    <xsd:import namespace="def454d3-7361-4a53-bd39-35a8c96a39c0"/>
+    <xsd:import namespace="06a0b0f5-ab3f-4382-8730-459fb424e421"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="26f1519c-0a18-4175-bd8e-760b6597752e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7234c9c0-dc82-4bd3-8448-fd5c6ce0fb75" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="def454d3-7361-4a53-bd39-35a8c96a39c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="06a0b0f5-ab3f-4382-8730-459fb424e421" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d364b89e-4bd8-460c-b810-9019e7d5e90b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="def454d3-7361-4a53-bd39-35a8c96a39c0">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="06a0b0f5-ab3f-4382-8730-459fb424e421" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="26f1519c-0a18-4175-bd8e-760b6597752e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426E1E72-D7C0-4D49-9FEF-CCE1F07D7F34}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4178A68-6EF9-4179-808B-0DC82CDC8578}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A41E033E-203B-416A-850E-50CC6B8C1158}"/>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{cf90b97b-be46-4a00-9700-81ce4ff1b7f6}" enabled="0" method="" siteId="{cf90b97b-be46-4a00-9700-81ce4ff1b7f6}" removed="1"/>
